--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1351,18 +1351,12 @@
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <f>IF(SUMPRODUCT(--(D5:V5&lt;&gt;""))=0,0.008,"N.A.")</f>
-        <v>N.A.</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="S5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="T5">
-        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/optimacore/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,6 +175,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A7" authorId="0">
       <text>
         <r>
@@ -189,6 +219,66 @@
       </text>
     </comment>
     <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +520,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -496,6 +586,15 @@
   </si>
   <si>
     <t>Force of infection</t>
+  </si>
+  <si>
+    <t>Number ever infected</t>
+  </si>
+  <si>
+    <t>Number infected or susceptible</t>
+  </si>
+  <si>
+    <t>Number not at risk of infection</t>
   </si>
 </sst>
 </file>
@@ -938,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,7 +1051,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1015,100 +1114,139 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B2">
-        <f>IF(SUMPRODUCT(--(D2:V2&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D3" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E3" s="1">
         <v>2001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F3" s="1">
         <v>2002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G3" s="1">
         <v>2003</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H3" s="1">
         <v>2004</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I3" s="1">
         <v>2005</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J3" s="1">
         <v>2006</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K3" s="1">
         <v>2007</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L3" s="1">
         <v>2008</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M3" s="1">
         <v>2009</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N3" s="1">
         <v>2010</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O3" s="1">
         <v>2011</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P3" s="1">
         <v>2012</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q3" s="1">
         <v>2013</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R3" s="1">
         <v>2014</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S3" s="1">
         <v>2015</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T3" s="1">
         <v>2016</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U3" s="1">
         <v>2017</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V3" s="1">
         <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B5">
-        <f>IF(SUMPRODUCT(--(D5:V5&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1171,17 +1309,134 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B8">
-        <f>IF(SUMPRODUCT(--(D8:V8&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15842171-212B-49DD-A00B-809DFB4AC454}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="458" windowWidth="16103" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="State Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,12 +71,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -110,12 +111,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4E28D499-99B0-415D-A844-70DF33B1D3F8}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4BA341A9-7098-45BF-BBCF-86B0B36F0886}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -295,17 +296,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -425,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -498,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -520,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -595,12 +626,18 @@
   </si>
   <si>
     <t>Number not at risk of infection</t>
+  </si>
+  <si>
+    <t>Total number of entities</t>
+  </si>
+  <si>
+    <t>N.A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,6 +698,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -952,19 +992,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -987,17 +1027,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1036,22 +1076,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1114,139 +1154,104 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="str">
+        <f>'Population Definitions'!B$2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="str">
+        <f>'Population Definitions'!B$2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V3" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T5" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U5" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V5" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1309,9 +1314,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1374,9 +1379,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1436,6 +1441,136 @@
         <v>2017</v>
       </c>
       <c r="V11" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V13" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S15" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V15" s="1">
         <v>2018</v>
       </c>
     </row>
@@ -1446,20 +1581,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1524,7 +1659,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1536,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1736,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1614,7 +1749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1814,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1692,7 +1827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1892,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1770,7 +1905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1835,7 +1970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1848,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +2048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1926,7 +2061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1991,7 +2126,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15842171-212B-49DD-A00B-809DFB4AC454}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CCA21F-CBC3-4B93-9BF0-6B8617F804A5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="458" windowWidth="16103" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -629,9 +629,6 @@
   </si>
   <si>
     <t>Total number of entities</t>
-  </si>
-  <si>
-    <t>N.A.</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1159,17 +1156,11 @@
         <f>'Population Definitions'!B$2</f>
         <v>Adults</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="B2">
+        <v>1000</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -1243,7 +1234,7 @@
         <v>Adults</v>
       </c>
       <c r="B5">
-        <v>8.0000000000000004E-4</v>
+        <v>800</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1314,139 +1305,98 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="str">
+        <f>'Population Definitions'!B$2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>2000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>2001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>2002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <v>2003</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="1">
         <v>2004</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I10" s="1">
         <v>2005</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J10" s="1">
         <v>2006</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K10" s="1">
         <v>2007</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L10" s="1">
         <v>2008</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M10" s="1">
         <v>2009</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N10" s="1">
         <v>2010</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O10" s="1">
         <v>2011</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P10" s="1">
         <v>2012</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q10" s="1">
         <v>2013</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R10" s="1">
         <v>2014</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S10" s="1">
         <v>2015</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T10" s="1">
         <v>2016</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U10" s="1">
         <v>2017</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V10" s="1">
         <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V11" s="1">
-        <v>2018</v>
+      <c r="A11" s="2" t="str">
+        <f>'Population Definitions'!B$2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B11">
+        <v>700</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -1509,69 +1459,170 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="str">
+        <f>'Population Definitions'!B$2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="str">
+        <f>'Population Definitions'!B$2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D19" s="1">
         <v>2000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E19" s="1">
         <v>2001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F19" s="1">
         <v>2002</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G19" s="1">
         <v>2003</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H19" s="1">
         <v>2004</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I19" s="1">
         <v>2005</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J19" s="1">
         <v>2006</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K19" s="1">
         <v>2007</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L19" s="1">
         <v>2008</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M19" s="1">
         <v>2009</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N19" s="1">
         <v>2010</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O19" s="1">
         <v>2011</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P19" s="1">
         <v>2012</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q19" s="1">
         <v>2013</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R19" s="1">
         <v>2014</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S19" s="1">
         <v>2015</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T19" s="1">
         <v>2016</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U19" s="1">
         <v>2017</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V19" s="1">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="str">
+        <f>'Population Definitions'!B$2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B20">
+        <v>0.7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CCA21F-CBC3-4B93-9BF0-6B8617F804A5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA60698-7E7F-4173-AD9D-8C260671AD65}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="458" windowWidth="16103" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,7 @@
     <sheet name="State Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -116,7 +108,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4E28D499-99B0-415D-A844-70DF33B1D3F8}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -129,187 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4BA341A9-7098-45BF-BBCF-86B0B36F0886}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -516,42 +328,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -583,13 +365,7 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Proportion ever infected</t>
-  </si>
-  <si>
-    <t>Proportion infected or susceptible</t>
-  </si>
-  <si>
-    <t>Proportion not at risk of infection</t>
+    <t>Total number of entities</t>
   </si>
   <si>
     <t>Death rate for susceptible people</t>
@@ -610,25 +386,10 @@
     <t>Number of contacts annually</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
     <t>Adults</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Force of infection</t>
-  </si>
-  <si>
-    <t>Number ever infected</t>
-  </si>
-  <si>
-    <t>Number infected or susceptible</t>
-  </si>
-  <si>
-    <t>Number not at risk of infection</t>
-  </si>
-  <si>
-    <t>Total number of entities</t>
   </si>
 </sst>
 </file>
@@ -749,9 +510,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -779,14 +540,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -814,6 +592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,12 +788,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -1011,10 +806,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1029,9 +824,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -1074,21 +869,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1153,475 +948,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!B$2</f>
+        <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V4" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="str">
-        <f>'Population Definitions'!B$2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B5">
-        <v>800</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S7" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U7" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V7" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="str">
-        <f>'Population Definitions'!B$2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B8">
-        <v>500</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O10" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R10" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S10" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V10" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="str">
-        <f>'Population Definitions'!B$2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B11">
-        <v>700</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R13" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S13" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U13" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V13" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="str">
-        <f>'Population Definitions'!B$2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B14">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T16" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V16" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="str">
-        <f>'Population Definitions'!B$2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B17">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V19" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="str">
-        <f>'Population Definitions'!B$2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B20">
-        <v>0.7</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1633,21 +966,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1716,7 +1047,8 @@
         <v>Adults</v>
       </c>
       <c r="B2">
-        <v>8.0000000000000004E-4</v>
+        <f>IF(SUMPRODUCT(--(D2:V2&lt;&gt;""))=0,0.008,"N.A.")</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1724,7 +1056,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1793,8 +1125,8 @@
         <v>Adults</v>
       </c>
       <c r="B5">
-        <f>IF(SUMPRODUCT(--(D5:V5&lt;&gt;""))=0,0.008,"N.A.")</f>
-        <v>8.0000000000000002E-3</v>
+        <f>IF(SUMPRODUCT(--(D5:V5&lt;&gt;""))=0,0.5,"N.A.")</f>
+        <v>0.5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1802,7 +1134,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1871,8 +1203,8 @@
         <v>Adults</v>
       </c>
       <c r="B8">
-        <f>IF(SUMPRODUCT(--(D8:V8&lt;&gt;""))=0,0.5,"N.A.")</f>
-        <v>0.5</v>
+        <f>IF(SUMPRODUCT(--(D8:V8&lt;&gt;""))=0,0.016,"N.A.")</f>
+        <v>1.6E-2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1880,7 +1212,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1949,8 +1281,8 @@
         <v>Adults</v>
       </c>
       <c r="B11">
-        <f>IF(SUMPRODUCT(--(D11:V11&lt;&gt;""))=0,0.016,"N.A.")</f>
-        <v>1.6E-2</v>
+        <f>IF(SUMPRODUCT(--(D11:V11&lt;&gt;""))=0,0.005,"N.A.")</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1958,7 +1290,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -2027,8 +1359,8 @@
         <v>Adults</v>
       </c>
       <c r="B14">
-        <f>IF(SUMPRODUCT(--(D14:V14&lt;&gt;""))=0,0.005,"N.A.")</f>
-        <v>5.0000000000000001E-3</v>
+        <f>IF(SUMPRODUCT(--(D14:V14&lt;&gt;""))=0,0.0008,"N.A.")</f>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -2036,7 +1368,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
@@ -2099,94 +1431,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
       <c r="B17">
-        <f>IF(SUMPRODUCT(--(D17:V17&lt;&gt;""))=0,0.0008,"N.A.")</f>
-        <v>8.0000000000000004E-4</v>
+        <f>IF(SUMPRODUCT(--(D17:V17&lt;&gt;""))=0,80,"N.A.")</f>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2004</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2005</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2006</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2007</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2008</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2009</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2010</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2011</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2012</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2013</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2014</v>
-      </c>
-      <c r="S19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2016</v>
-      </c>
-      <c r="U19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="V19" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B20">
-        <f>IF(SUMPRODUCT(--(D20:V20&lt;&gt;""))=0,80,"N.A.")</f>
-        <v>80</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA60698-7E7F-4173-AD9D-8C260671AD65}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3F6859-C6A2-41D7-95DE-DED3A0A63504}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -117,11 +117,71 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>This column defines a 'label' attribute for a 'comp' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'label' attribute for a 'comp' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>This is a characteristic.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -363,6 +423,12 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>Susceptible</t>
+  </si>
+  <si>
+    <t>Infected</t>
   </si>
   <si>
     <t>Total number of entities</t>
@@ -787,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -806,10 +872,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -869,10 +935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -952,9 +1018,163 @@
         <v>Adults</v>
       </c>
       <c r="B2">
+        <v>700</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="str">
+        <f>'Population Definitions'!B2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2004</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2008</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2010</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2011</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2013</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="str">
+        <f>'Population Definitions'!B2</f>
+        <v>Adults</v>
+      </c>
+      <c r="B8">
         <v>1000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -968,7 +1188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -978,7 +1200,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1056,7 +1278,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1134,7 +1356,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1212,7 +1434,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1290,7 +1512,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -1368,7 +1590,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3F6859-C6A2-41D7-95DE-DED3A0A63504}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA422128-FA78-4F45-ADD4-4405EADEF000}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="13440" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA422128-FA78-4F45-ADD4-4405EADEF000}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="13440" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="13440" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -18,17 +17,25 @@
     <sheet name="State Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,12 +70,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,12 +110,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,12 +210,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +468,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,9 +583,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -606,31 +613,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -658,23 +648,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,19 +823,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.73046875" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -885,17 +858,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.73046875" customWidth="1"/>
+    <col min="1" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -911,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -919,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -934,20 +907,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +985,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1024,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1062,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1101,7 +1074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1139,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1185,20 +1158,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1236,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1276,7 +1249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1314,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1354,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1419,7 +1392,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1432,7 +1405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1470,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1510,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1548,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1588,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +1626,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA422128-FA78-4F45-ADD4-4405EADEF000}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="13440" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="13440" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -17,25 +18,17 @@
     <sheet name="State Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,12 +63,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -110,12 +103,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -210,12 +203,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -288,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,9 +576,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -613,14 +606,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -648,6 +658,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -823,19 +850,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -858,17 +885,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -884,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -892,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -907,20 +934,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -985,7 +1012,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -997,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1089,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1074,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1139,7 +1166,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1158,20 +1185,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1263,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1249,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1341,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1327,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1419,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1405,7 +1432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1497,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1483,7 +1510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1575,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1561,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1626,7 +1653,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA422128-FA78-4F45-ADD4-4405EADEF000}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B041D6-5198-4DC8-8263-28BB23A028B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="13440" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="State Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -130,6 +130,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
 In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
@@ -138,20 +152,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'label' attribute for a 'comp' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +209,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -230,6 +272,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B4D16957-06E8-4BFF-9F93-D3562E084FF1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
 In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
@@ -238,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +307,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{59555E9E-5921-4B84-B52C-B8210DFCACB0}">
       <text>
         <r>
           <rPr>
@@ -268,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +351,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{DE05BA36-86E1-4F22-8B5D-5294D5590975}">
       <text>
         <r>
           <rPr>
@@ -298,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +395,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{350FA826-1034-4FED-9BB0-CF8AEC055305}">
       <text>
         <r>
           <rPr>
@@ -328,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +439,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{A34E5756-14AC-4CA6-8F9C-29CFA0AA4A59}">
       <text>
         <r>
           <rPr>
@@ -358,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +483,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{E22C0B53-AFF3-4BC4-88F2-74A45EA18B1D}">
       <text>
         <r>
           <rPr>
@@ -393,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -419,25 +545,40 @@
     <t>Program 2</t>
   </si>
   <si>
+    <t>Susceptible</t>
+  </si>
+  <si>
+    <t>Quantity Type</t>
+  </si>
+  <si>
     <t>Constant</t>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>Susceptible</t>
-  </si>
-  <si>
-    <t>Infected</t>
-  </si>
-  <si>
     <t>Total number of entities</t>
   </si>
   <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
     <t>Death rate for susceptible people</t>
   </si>
   <si>
+    <t>Probability</t>
+  </si>
+  <si>
     <t>Average duration of infections (years)</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
   <si>
     <t>Death rate for infected people</t>
@@ -854,7 +995,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -872,10 +1013,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -935,250 +1076,280 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2000</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2001</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2002</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2003</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>2004</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2005</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>2006</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>2007</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2008</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>2009</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>2010</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2011</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>2012</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>2013</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>2014</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>2015</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>2016</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>2017</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>700</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2003</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2004</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>2005</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2006</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>2007</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>2008</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2009</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>2010</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>2011</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>2012</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>2013</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>2014</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>2015</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>2016</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>2017</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>2000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2003</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2004</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>2005</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>2006</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>2007</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>2008</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>2009</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>2010</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>2011</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>2012</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>2013</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>2014</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>2015</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>2016</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>2017</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>"Fraction"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1186,487 +1357,544 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1">
         <v>2000</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2001</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2002</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2003</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>2004</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2005</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>2006</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>2007</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2008</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>2009</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>2010</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2011</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>2012</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>2013</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>2014</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>2015</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>2016</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>2017</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B2">
-        <f>IF(SUMPRODUCT(--(D2:V2&lt;&gt;""))=0,0.008,"N.A.")</f>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <f>IF(SUMPRODUCT(--(E2:W2&lt;&gt;""))=0,0.008,"N.A.")</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2003</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2004</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>2005</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2006</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>2007</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>2008</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2009</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>2010</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>2011</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>2012</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>2013</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>2014</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>2015</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>2016</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>2017</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B5">
-        <f>IF(SUMPRODUCT(--(D5:V5&lt;&gt;""))=0,0.5,"N.A.")</f>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,0.5,"N.A.")</f>
         <v>0.5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>2000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2003</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2004</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>2005</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>2006</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>2007</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>2008</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>2009</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>2010</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>2011</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>2012</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>2013</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>2014</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>2015</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>2016</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>2017</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B8">
-        <f>IF(SUMPRODUCT(--(D8:V8&lt;&gt;""))=0,0.016,"N.A.")</f>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <f>IF(SUMPRODUCT(--(E8:W8&lt;&gt;""))=0,0.016,"N.A.")</f>
         <v>1.6E-2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
         <v>2000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>2002</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>2003</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>2004</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>2005</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>2006</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>2007</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>2008</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>2009</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>2010</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>2011</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>2012</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>2013</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>2014</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>2015</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>2016</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>2017</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B11">
-        <f>IF(SUMPRODUCT(--(D11:V11&lt;&gt;""))=0,0.005,"N.A.")</f>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <f>IF(SUMPRODUCT(--(E11:W11&lt;&gt;""))=0,0.005,"N.A.")</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
         <v>2000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>2001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>2002</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2003</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>2004</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>2005</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>2006</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>2007</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>2008</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>2009</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>2010</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>2011</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>2012</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>2013</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>2014</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>2015</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>2016</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>2017</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B14">
-        <f>IF(SUMPRODUCT(--(D14:V14&lt;&gt;""))=0,0.0008,"N.A.")</f>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.0008,"N.A.")</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
         <v>2000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>2001</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>2002</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>2003</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>2004</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>2005</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>2006</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>2007</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>2008</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>2009</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>2010</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>2011</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>2012</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>2013</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>2014</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>2015</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>2016</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>2017</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
-      <c r="B17">
-        <f>IF(SUMPRODUCT(--(D17:V17&lt;&gt;""))=0,80,"N.A.")</f>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <f>IF(SUMPRODUCT(--(E17:W17&lt;&gt;""))=0,80,"N.A.")</f>
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0300-000002000000}">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{00000000-0002-0000-0300-000003000000}">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0300-000004000000}">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0300-000005000000}">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B041D6-5198-4DC8-8263-28BB23A028B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51E2250-94CD-4669-B3D5-B2B621BDB874}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{350FA826-1034-4FED-9BB0-CF8AEC055305}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A34E5756-14AC-4CA6-8F9C-29CFA0AA4A59}">
       <text>
         <r>
           <rPr>
@@ -426,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{A34E5756-14AC-4CA6-8F9C-29CFA0AA4A59}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{E22C0B53-AFF3-4BC4-88F2-74A45EA18B1D}">
       <text>
         <r>
           <rPr>
@@ -470,56 +470,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{E22C0B53-AFF3-4BC4-88F2-74A45EA18B1D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -582,9 +538,6 @@
   </si>
   <si>
     <t>Death rate for infected people</t>
-  </si>
-  <si>
-    <t>Initial prevalence</t>
   </si>
   <si>
     <t>Transmission probability per contact</t>
@@ -1013,10 +966,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1357,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1531,8 +1484,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,0.5,"N.A.")</f>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1699,8 +1651,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <f>IF(SUMPRODUCT(--(E11:W11&lt;&gt;""))=0,0.005,"N.A.")</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -1780,118 +1731,25 @@
         <v>Adults</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.0008,"N.A.")</f>
-        <v>8.0000000000000004E-4</v>
+        <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,80,"N.A.")</f>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2001</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2002</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2003</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2004</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2005</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2006</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2007</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2008</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2009</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2010</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2011</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="R16" s="1">
-        <v>2013</v>
-      </c>
-      <c r="S16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="T16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="U16" s="1">
-        <v>2016</v>
-      </c>
-      <c r="V16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="W16" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <f>IF(SUMPRODUCT(--(E17:W17&lt;&gt;""))=0,80,"N.A.")</f>
-        <v>80</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B11 B8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0300-000002000000}">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0300-000004000000}">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0300-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51E2250-94CD-4669-B3D5-B2B621BDB874}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -18,17 +17,17 @@
     <sheet name="State Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,12 +62,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,12 +102,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,12 +244,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B4D16957-06E8-4BFF-9F93-D3562E084FF1}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{59555E9E-5921-4B84-B52C-B8210DFCACB0}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{DE05BA36-86E1-4F22-8B5D-5294D5590975}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A34E5756-14AC-4CA6-8F9C-29CFA0AA4A59}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{E22C0B53-AFF3-4BC4-88F2-74A45EA18B1D}">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -555,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,23 +699,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -752,23 +734,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,19 +909,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="15.73046875" customWidth="1"/>
+    <col min="1" max="2" width="15.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -979,17 +944,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="20.73046875" customWidth="1"/>
+    <col min="1" max="2" width="20.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1028,21 +993,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.734375" customWidth="1"/>
+    <col min="3" max="3" width="10.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1075,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1125,7 +1090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,7 +1158,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1208,7 +1173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,30 +1241,35 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E8">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J8">
+        <v>1.2740740740740741</v>
+      </c>
+      <c r="O8">
+        <v>2.4456521739130435</v>
+      </c>
+      <c r="T8">
+        <v>0.27083333333333331</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Fraction"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1309,21 +1279,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="50.734375" customWidth="1"/>
+    <col min="2" max="2" width="15.734375" customWidth="1"/>
+    <col min="3" max="3" width="10.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1361,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1407,7 +1377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1475,7 +1445,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1490,7 +1460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1558,7 +1528,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1574,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1642,7 +1612,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1657,7 +1627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1725,7 +1695,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1743,13 +1713,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B11 B8" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B11 B8">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0300-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1248,20 +1248,68 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>0.2857142857142857</v>
+        <v>0.28571428999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.25792055000000003</v>
+      </c>
+      <c r="G8">
+        <v>0.23218095999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.20849680000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.18682389999999999</v>
       </c>
       <c r="J8">
-        <v>1.2740740740740741</v>
+        <v>0.16708539</v>
+      </c>
+      <c r="K8">
+        <v>0.14918208999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.13300081999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.11842081</v>
+      </c>
+      <c r="N8">
+        <v>0.10531865999999999</v>
       </c>
       <c r="O8">
-        <v>2.4456521739130435</v>
+        <v>9.3571909999999994E-2</v>
+      </c>
+      <c r="P8">
+        <v>8.3061700000000002E-2</v>
+      </c>
+      <c r="Q8">
+        <v>7.3674489999999995E-2</v>
+      </c>
+      <c r="R8">
+        <v>6.5303260000000002E-2</v>
+      </c>
+      <c r="S8">
+        <v>5.7848160000000003E-2</v>
       </c>
       <c r="T8">
-        <v>0.27083333333333331</v>
+        <v>5.1216810000000002E-2</v>
+      </c>
+      <c r="U8">
+        <v>4.5324320000000001E-2</v>
+      </c>
+      <c r="V8">
+        <v>4.0093150000000001E-2</v>
+      </c>
+      <c r="W8">
+        <v>3.54528E-2</v>
       </c>
     </row>
   </sheetData>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E9D1B-BD18-4DA4-BC87-538628FCE450}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,17 @@
     <sheet name="State Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,12 +63,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -102,12 +103,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -244,12 +245,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -293,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -350,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -425,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -554,7 +555,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,6 +700,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -734,6 +752,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -909,19 +944,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="15.734375" customWidth="1"/>
+    <col min="1" max="2" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -944,17 +979,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.734375" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -978,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -993,21 +1028,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.734375" customWidth="1"/>
-    <col min="3" max="3" width="10.734375" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1110,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1090,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1193,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1173,7 +1208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1276,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1314,10 +1349,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Fraction"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1327,23 +1362,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.734375" customWidth="1"/>
-    <col min="2" max="2" width="15.734375" customWidth="1"/>
-    <col min="3" max="3" width="10.734375" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1409,7 +1444,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1418,16 +1453,15 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <f>IF(SUMPRODUCT(--(E2:W2&lt;&gt;""))=0,0.008,"N.A.")</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1493,24 +1527,25 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,80,"N.A.")</f>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1576,25 +1611,24 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <f>IF(SUMPRODUCT(--(E8:W8&lt;&gt;""))=0,0.016,"N.A.")</f>
-        <v>1.6E-2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -1660,7 +1694,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1669,15 +1703,16 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>8.0000000000000002E-3</v>
+        <f>IF(SUMPRODUCT(--(E11:W11&lt;&gt;""))=0,0.016,"N.A.")</f>
+        <v>1.6E-2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -1743,17 +1778,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,80,"N.A.")</f>
-        <v>80</v>
+        <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.008,"N.A.")</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -1761,13 +1796,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B11 B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B2 B11" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CF119-2272-4004-AEC4-5F9C2DDA7592}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C449F36-4F0F-4069-969F-B639A59BDA54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1669,8 +1671,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.0008,"N.A.")</f>
-        <v>8.0000000000000004E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1753,8 +1754,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <f>IF(SUMPRODUCT(--(E17:W17&lt;&gt;""))=0,0.0001,"N.A.")</f>
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -2005,8 +2005,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <f>IF(SUMPRODUCT(--(E26:W26&lt;&gt;""))=0,0.5,"N.A.")</f>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -2089,8 +2088,7 @@
         <v>16</v>
       </c>
       <c r="C29">
-        <f>IF(SUMPRODUCT(--(E29:W29&lt;&gt;""))=0,0.25,"N.A.")</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -2312,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C449F36-4F0F-4069-969F-B639A59BDA54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF67F2-5025-4B30-A0F0-50078ECD8B4A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,7 +728,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>Adults</t>
+  </si>
+  <si>
+    <t>N.A.</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1334,12 +1337,17 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <f>IF(SUMPRODUCT(--(E2:W2&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
@@ -1418,12 +1426,17 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="N5">
+        <v>50</v>
+      </c>
+      <c r="O5">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -1502,12 +1515,17 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <f>IF(SUMPRODUCT(--(E8:W8&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -2302,7 +2320,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E9D1B-BD18-4DA4-BC87-538628FCE450}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -18,17 +17,25 @@
     <sheet name="State Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,12 +70,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,12 +110,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,12 +252,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,9 +677,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -700,31 +707,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -752,23 +742,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,19 +917,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.73046875" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -979,17 +952,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.73046875" customWidth="1"/>
+    <col min="1" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1028,21 +1001,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1083,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1125,7 +1098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,7 +1166,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1208,7 +1181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1249,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1349,10 +1322,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Fraction"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1362,21 +1335,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1444,7 +1417,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1459,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1527,7 +1500,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1543,7 +1516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1611,7 +1584,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1626,7 +1599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1694,7 +1667,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1710,7 +1683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1778,7 +1751,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f>'Population Definitions'!B2</f>
         <v>Adults</v>
@@ -1796,13 +1769,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B2 B11" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B2 B11">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E9D1B-BD18-4DA4-BC87-538628FCE450}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B6A38B-2BCD-4628-B103-FFA0941AF75B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Program Definitions" sheetId="2" r:id="rId2"/>
-    <sheet name="State Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="Transfer Definitions" sheetId="5" r:id="rId2"/>
+    <sheet name="Transfer Details" sheetId="6" r:id="rId3"/>
+    <sheet name="Program Definitions" sheetId="2" r:id="rId4"/>
+    <sheet name="State Variables" sheetId="3" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -68,32 +70,49 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the abbreviated name of a population.
-It is only ever used as a reference label within the code.
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E7F6C3C7-0FE9-44E6-86E9-9DFFE65D74B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the abbreviated name of a transfer.
+A transfer is a movement of entities between populations,
+which, by default, is from compartment to corresponding
+compartment.
+The flow number is, by default, distributed in proportion
+to the size of all compartments in the source population.
+A common example is 'aging', where a specified fraction of
+people in one age bracket move per year to the next age
+bracket.
+The abbreviation is only ever used as a reference label
+within the code.
 Note: It should be in lower case without spaces.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the full name of a program.
-It will appear in plots and analysis outputs.
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1C309BE7-3A33-4B27-818D-F7B2A7B2DA0C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the full name of a transfer.
+A transfer is a movement of entities between populations,
+which, by default, is from compartment to corresponding
+compartment.
+The flow number is, by default, distributed in proportion
+to the size of all compartments in the source population.
+A common example is 'Aging', where a specified fraction of
+people in one age bracket move per year to the next age
+bracket.
+The full name will appear in plots and analysis outputs.
 Note: It should be in title or sentence case.</t>
         </r>
       </text>
@@ -108,20 +127,30 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'label' attribute for a 'comp' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{72944053-F456-4F94-9F8B-FF737E24577E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the full name of a transfer.
+A transfer is a movement of entities between populations,
+which, by default, is from compartment to corresponding
+compartment.
+The flow number is, by default, distributed in proportion
+to the size of all compartments in the source population.
+A common example is 'Aging', where a specified fraction of
+people in one age bracket move per year to the next age
+bracket.
+The full name will appear in plots and analysis outputs.
+Note: It should be in title or sentence case.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{37B0BB7D-4D79-4DFA-90C6-6D2E0BD5A184}">
       <text>
         <r>
           <rPr>
@@ -135,95 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7F3CF7F1-9D77-4CAE-B0F7-A9240FC1E148}">
       <text>
         <r>
           <rPr>
@@ -250,20 +191,60 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the abbreviated name of a population.
+It is only ever used as a reference label within the code.
+Note: It should be in lower case without spaces.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the full name of a program.
+It will appear in plots and analysis outputs.
+Note: It should be in title or sentence case.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'label' attribute for a 'comp' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -294,20 +275,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -321,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -338,20 +319,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +363,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -426,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -470,12 +461,144 @@
         </r>
       </text>
     </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -550,6 +673,15 @@
   </si>
   <si>
     <t>Adults</t>
+  </si>
+  <si>
+    <t>trans_0</t>
+  </si>
+  <si>
+    <t>Transfer 0</t>
+  </si>
+  <si>
+    <t>N.A.</t>
   </si>
 </sst>
 </file>
@@ -979,6 +1111,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173DB03-9DA9-4723-BA4D-D4F2E4218144}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="15.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="str">
+        <f>$B$2</f>
+        <v>Transfer 0</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{845C5B9F-F956-439D-BFEE-D0A4DBEE719E}">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99B07ED-0F90-40C4-B349-276E5F4A7E2B}">
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="str">
+        <f>'Transfer Definitions'!$B$2</f>
+        <v>Transfer 0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1027,7 +1297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
@@ -1361,11 +1631,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E9D1B-BD18-4DA4-BC87-538628FCE450}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA88C22-48FB-4FA2-BDEF-916D89085866}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Program Definitions" sheetId="2" r:id="rId2"/>
-    <sheet name="State Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="State Variables" sheetId="3" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -68,33 +67,135 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the abbreviated name of a population.
-It is only ever used as a reference label within the code.
-Note: It should be in lower case without spaces.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the full name of a program.
-It will appear in plots and analysis outputs.
-Note: It should be in title or sentence case.</t>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'label' attribute for a 'comp' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a characteristic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
+In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column should be filled with default values used by the model.
+If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
+In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
+Alternatively, the user can leave the cell blank.
+However, any other value will override the time-dependent values during a model run.</t>
         </r>
       </text>
     </comment>
@@ -108,20 +209,20 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'label' attribute for a 'comp' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -152,20 +253,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -196,20 +297,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a parameter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -240,17 +341,7 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -321,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -338,167 +429,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>Abbreviation</t>
   </si>
   <si>
     <t>Full Name</t>
-  </si>
-  <si>
-    <t>prog_0</t>
-  </si>
-  <si>
-    <t>Program 0</t>
-  </si>
-  <si>
-    <t>prog_1</t>
-  </si>
-  <si>
-    <t>Program 1</t>
-  </si>
-  <si>
-    <t>prog_2</t>
-  </si>
-  <si>
-    <t>Program 2</t>
   </si>
   <si>
     <t>Susceptible</t>
@@ -947,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -966,10 +907,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -979,55 +920,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="2" width="20.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
@@ -1044,13 +936,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>2000</v>
@@ -1116,24 +1008,24 @@
         <v>Adults</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>700</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>2000</v>
@@ -1199,24 +1091,24 @@
         <v>Adults</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>2000</v>
@@ -1278,16 +1170,16 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0.28571428999999998</v>
@@ -1361,11 +1253,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1378,13 +1270,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>2000</v>
@@ -1450,24 +1342,24 @@
         <v>Adults</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>2000</v>
@@ -1533,25 +1425,25 @@
         <v>Adults</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,80,"N.A.")</f>
         <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>2000</v>
@@ -1617,24 +1509,24 @@
         <v>Adults</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>2000</v>
@@ -1700,25 +1592,25 @@
         <v>Adults</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <f>IF(SUMPRODUCT(--(E11:W11&lt;&gt;""))=0,0.016,"N.A.")</f>
         <v>1.6E-2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>2000</v>
@@ -1784,14 +1676,14 @@
         <v>Adults</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.008,"N.A.")</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA88C22-48FB-4FA2-BDEF-916D89085866}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34224A1-2122-4354-A928-5650BC9D8660}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -888,16 +888,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.73046875" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -924,17 +924,17 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1002,10 +1002,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,10 +1085,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1100,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1168,9 +1168,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1257,18 +1258,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1336,10 +1337,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1351,7 +1352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1419,10 +1420,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1435,7 +1436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1503,10 +1504,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1518,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1586,10 +1587,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1602,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1670,10 +1671,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34224A1-2122-4354-A928-5650BC9D8660}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241EE670-F775-4CB1-A4B7-6CBC2C0BCEB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="State Variables" sheetId="3" r:id="rId2"/>
     <sheet name="Parameters" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,11 +1010,65 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>700</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2">
+        <v>700</v>
+      </c>
+      <c r="F2">
+        <v>700</v>
+      </c>
+      <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
+        <v>700</v>
+      </c>
+      <c r="I2">
+        <v>700</v>
+      </c>
+      <c r="J2">
+        <v>700</v>
+      </c>
+      <c r="K2">
+        <v>700</v>
+      </c>
+      <c r="L2">
+        <v>700</v>
+      </c>
+      <c r="M2">
+        <v>700</v>
+      </c>
+      <c r="N2">
+        <v>700</v>
+      </c>
+      <c r="O2">
+        <v>700</v>
+      </c>
+      <c r="P2">
+        <v>700</v>
+      </c>
+      <c r="Q2">
+        <v>700</v>
+      </c>
+      <c r="R2">
+        <v>700</v>
+      </c>
+      <c r="S2">
+        <v>700</v>
+      </c>
+      <c r="T2">
+        <v>700</v>
+      </c>
+      <c r="U2">
+        <v>700</v>
+      </c>
+      <c r="V2">
+        <v>700</v>
+      </c>
+      <c r="W2">
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1093,11 +1147,65 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+      <c r="N5">
+        <v>1000</v>
+      </c>
+      <c r="O5">
+        <v>1000</v>
+      </c>
+      <c r="P5">
+        <v>1000</v>
+      </c>
+      <c r="Q5">
+        <v>1000</v>
+      </c>
+      <c r="R5">
+        <v>1000</v>
+      </c>
+      <c r="S5">
+        <v>1000</v>
+      </c>
+      <c r="T5">
+        <v>1000</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="V5">
+        <v>1000</v>
+      </c>
+      <c r="W5">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1175,9 +1283,6 @@
       </c>
       <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0.2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1258,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241EE670-F775-4CB1-A4B7-6CBC2C0BCEB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC4FC7-BDB6-4C27-9510-84F52D8A3C97}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8256EE45-9EF1-4CA3-85CD-6CE2E4ECFEF9}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{2A5CB67B-03D4-4359-A9D9-3EA87E2CE8DD}">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{288932BE-BA6B-434E-B4A8-1BBB88278D0D}">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{E2E25B69-8F8B-4399-8D98-0F8FD553EEA4}">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{EF93376B-2D3E-4CA2-96B7-BAECB9504545}">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{D104B058-2C83-48FE-BF00-F37E81D09963}">
       <text>
         <r>
           <rPr>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>Susceptible</t>
-  </si>
-  <si>
-    <t>Quantity Type</t>
   </si>
   <si>
     <t>Constant</t>
@@ -491,6 +488,9 @@
   </si>
   <si>
     <t>Adults</t>
+  </si>
+  <si>
+    <t>Units</t>
   </si>
 </sst>
 </file>
@@ -907,10 +907,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,10 +939,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>2000</v>
@@ -1008,10 +1008,10 @@
         <v>adults</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2">
         <v>700</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>2000</v>
@@ -1145,10 +1145,10 @@
         <v>adults</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>2000</v>
@@ -1282,10 +1282,10 @@
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0.28571428999999998</v>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,13 +1376,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>2000</v>
@@ -1448,24 +1448,24 @@
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>2000</v>
@@ -1531,25 +1531,25 @@
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,80,"N.A.")</f>
         <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>2000</v>
@@ -1615,24 +1615,24 @@
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>2000</v>
@@ -1698,25 +1698,25 @@
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <f>IF(SUMPRODUCT(--(E11:W11&lt;&gt;""))=0,0.016,"N.A.")</f>
         <v>1.6E-2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>2000</v>
@@ -1782,14 +1782,14 @@
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.008,"N.A.")</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/tests/databooks/databook_sir.xlsx
+++ b/tests/databooks/databook_sir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC4FC7-BDB6-4C27-9510-84F52D8A3C97}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C3639E-3B58-4F47-84FF-F34919B62B05}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,13 @@
     <sheet name="Parameters" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -434,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -491,6 +498,9 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>N.A.</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1374,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1541,7 @@
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,80,"N.A.")</f>
@@ -1793,16 +1803,13 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B2 B11" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000002000000}">
-      <formula1>"Number"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
